--- a/ratios.xlsx
+++ b/ratios.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rutherford\Documents\TausandBill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8902AFE2-4A02-43EE-A3F7-6FC0BE3CDF5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F4FA274D-A62E-4967-9688-E8DCA41DF1C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Image X</t>
   </si>
@@ -88,12 +87,27 @@
   </si>
   <si>
     <t>Descripción</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Retefuente</t>
+  </si>
+  <si>
+    <t>Observaciones UPPERLEFT</t>
+  </si>
+  <si>
+    <t>Observaciones LOWERRIGHT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,16 +465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4769F302-8295-456C-9FCE-660EA2FAF6BE}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -546,7 +560,7 @@
         <v>486.87163720215221</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E14" si="1">$E$2 - C4*$G$2</f>
+        <f t="shared" ref="E4:E21" si="1">$E$2 - C4*$G$2</f>
         <v>314.45652173913044</v>
       </c>
     </row>
@@ -637,7 +651,7 @@
         <v>489</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D16" si="2">B9*$F$2</f>
+        <f t="shared" ref="D9:D21" si="2">B9*$F$2</f>
         <v>97.139123750960792</v>
       </c>
       <c r="E9" s="1">
@@ -758,11 +772,107 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2120</v>
+        <v>2440</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>498.63182167563411</v>
+        <v>573.89700230591848</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2440</v>
+      </c>
+      <c r="C17">
+        <v>1148</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>573.89700230591848</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>121.47826086956519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>2440</v>
+      </c>
+      <c r="C18">
+        <v>1290</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>573.89700230591848</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>87.521739130434753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2440</v>
+      </c>
+      <c r="C19">
+        <v>1345</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>573.89700230591848</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>74.369565217391312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>250</v>
+      </c>
+      <c r="C20">
+        <v>1153</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>58.800922367409683</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>120.28260869565219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>1868</v>
+      </c>
+      <c r="C21">
+        <v>1337</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>439.36049192928516</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>76.282608695652186</v>
       </c>
     </row>
   </sheetData>
